--- a/flash-api/src/main/resources/templates/budgetList.xlsx
+++ b/flash-api/src/main/resources/templates/budgetList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE6B5A-78EF-4EFB-BBF4-F47C16534613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25452" yWindow="948" windowWidth="18060" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>工程案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,22 +58,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${maa01a.maa01a010}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${maa01a.maa01a011}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.maa01a013}</t>
+    <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -415,21 +406,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,32 +434,26 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
